--- a/UnitTests/Tests/RateHelpers.xlsx
+++ b/UnitTests/Tests/RateHelpers.xlsx
@@ -195,7 +195,7 @@
     <t>rh14#0000</t>
   </si>
   <si>
-    <t>obj_0000e</t>
+    <t>obj_000a0</t>
   </si>
 </sst>
 </file>
@@ -602,19 +602,19 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>42678</v>
+        <v>42648</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D35" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E3">
         <f>_xll.qlRateHelperEarliestDate(E11)</f>
-        <v>42678</v>
+        <v>42648</v>
       </c>
       <c r="G3" t="str">
         <f>_xll.qlFraRateHelper(,1,"1d",J3,"maturitydate")</f>
-        <v>obj_00016#0000</v>
+        <v>obj_000a4#0000</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -624,11 +624,11 @@
       </c>
       <c r="J3" t="str">
         <f>_xll.qlIborIndex(,"euribor","1d",2,"eur","target","modified following",TRUE,"actual/360",K3)</f>
-        <v>obj_0000b#0000</v>
+        <v>obj_0009c#0000</v>
       </c>
       <c r="K3" t="str">
         <f>_xll.qlFlatForward(,0,"target",1,"actual/360","continuous","annual")</f>
-        <v>obj_00001#0000</v>
+        <v>obj_00093#0000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -636,19 +636,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>42681</v>
+        <v>42649</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D35" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E4">
         <f>_xll.qlRateHelperLatestRelevantDate(E11)</f>
-        <v>42681</v>
+        <v>42649</v>
       </c>
       <c r="G4" t="str">
         <f>_xll.qlFraRateHelper(,1,"2d",J3,"maturitydate")</f>
-        <v>obj_00014#0000</v>
+        <v>obj_000a9#0000</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -658,7 +658,7 @@
       </c>
       <c r="J4" s="5" t="str">
         <f>_xll.qlSwapIndex(,"euribor","1y",2,"eur","target","1y","modified following","actual/360",J3)</f>
-        <v>obj_00015#0000</v>
+        <v>obj_000a5#0000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>42681</v>
+        <v>42649</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -674,11 +674,11 @@
       </c>
       <c r="E5">
         <f>_xll.qlRateHelperPillarDate(E11)</f>
-        <v>42681</v>
+        <v>42649</v>
       </c>
       <c r="G5" t="str">
         <f>_xll.qlFraRateHelper(,1,"3d",J3,"maturitydate")</f>
-        <v>obj_00018#0000</v>
+        <v>obj_000a7#0000</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -688,7 +688,7 @@
       </c>
       <c r="J5" t="str">
         <f>_xll.qlOvernightIndex(,"euribor",2,"eur","target","actual/360",K3)</f>
-        <v>obj_0000a#0000</v>
+        <v>obj_0009a#0000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="4">
-        <v>42681</v>
+        <v>42649</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3" t="str">
@@ -705,7 +705,7 @@
       </c>
       <c r="E6" s="4">
         <f>_xll.qlRateHelperMaturityDate(E11)</f>
-        <v>42681</v>
+        <v>42649</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -745,9 +745,9 @@
         <v>#NUM!</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E9" s="4" t="e">
         <f>_xll.qlRateHelperImpliedQuote(E11)</f>
@@ -761,9 +761,9 @@
       <c r="B10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E10" t="e">
         <f>_xll.qlRateHelperQuoteError(E11)</f>
@@ -931,11 +931,11 @@
       </c>
       <c r="G20" t="str">
         <f>_xll.qlBond(,,"eur",2,"target",100,,,H20)</f>
-        <v>obj_00008#0000</v>
+        <v>obj_00098#0000</v>
       </c>
       <c r="H20" t="str">
         <f>_xll.qlLeg(,H3:H5,I3:I5)</f>
-        <v>obj_00007#0000</v>
+        <v>obj_00095#0000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
       </c>
       <c r="G21" t="str">
         <f>_xll.qlSchedule(,I3,I5,"1d","target","mf","mf","backward",TRUE)</f>
-        <v>obj_00004#0000</v>
+        <v>obj_00094#0000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="E34" t="str">
         <f>_xll.qlRateHelperSelection(H34:H36,I34:I36,1,1,1,"alldepos",1)</f>
-        <v>obj_0000e</v>
+        <v>obj_000a0</v>
       </c>
       <c r="H34" t="str">
         <f>_xll.qlDepositRateHelper(,0,J3)</f>
-        <v>obj_00010#0000</v>
+        <v>obj_000a8#0000</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H35" t="str">
         <f>_xll.qlDepositRateHelper(,0,J3)</f>
-        <v>obj_0000e#0000</v>
+        <v>obj_000aa#0000</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1202,7 +1202,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H36" t="str">
         <f>_xll.qlDepositRateHelper(,0,J3)</f>
-        <v>obj_00017#0000</v>
+        <v>obj_000a0#0000</v>
       </c>
       <c r="I36">
         <v>1</v>

--- a/UnitTests/Tests/RateHelpers.xlsx
+++ b/UnitTests/Tests/RateHelpers.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -201,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,12 +265,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -307,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +348,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,6 +400,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,13 +592,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -608,13 +650,13 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3">
-        <f>_xll.qlRateHelperEarliestDate(E11)</f>
-        <v>42648</v>
-      </c>
-      <c r="G3" t="str">
-        <f>_xll.qlFraRateHelper(,1,"1d",J3,"maturitydate")</f>
-        <v>obj_000a4#0000</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlRateHelperEarliestDate(E11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G3" t="e">
+        <f ca="1">_xll.qlFraRateHelper(,1,"1d",J3,"maturitydate")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -622,13 +664,13 @@
       <c r="I3" s="4">
         <v>25569</v>
       </c>
-      <c r="J3" t="str">
-        <f>_xll.qlIborIndex(,"euribor","1d",2,"eur","target","modified following",TRUE,"actual/360",K3)</f>
-        <v>obj_0009c#0000</v>
-      </c>
-      <c r="K3" t="str">
-        <f>_xll.qlFlatForward(,0,"target",1,"actual/360","continuous","annual")</f>
-        <v>obj_00093#0000</v>
+      <c r="J3" t="e">
+        <f ca="1">_xll.qlIborIndex(,"euribor","1d",2,"eur","target","modified following",TRUE,"actual/360",K3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K3" t="e">
+        <f ca="1">_xll.qlFlatForward(,0,"target",1,"actual/360","continuous","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -642,13 +684,13 @@
         <f t="shared" ref="D4:D35" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4">
-        <f>_xll.qlRateHelperLatestRelevantDate(E11)</f>
-        <v>42649</v>
-      </c>
-      <c r="G4" t="str">
-        <f>_xll.qlFraRateHelper(,1,"2d",J3,"maturitydate")</f>
-        <v>obj_000a9#0000</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlRateHelperLatestRelevantDate(E11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G4" t="e">
+        <f ca="1">_xll.qlFraRateHelper(,1,"2d",J3,"maturitydate")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -656,9 +698,9 @@
       <c r="I4" s="4">
         <v>25570</v>
       </c>
-      <c r="J4" s="5" t="str">
-        <f>_xll.qlSwapIndex(,"euribor","1y",2,"eur","target","1y","modified following","actual/360",J3)</f>
-        <v>obj_000a5#0000</v>
+      <c r="J4" s="5" t="e">
+        <f ca="1">_xll.qlSwapIndex(,"euribor","1y",2,"eur","target","1y","modified following","actual/360",J3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -672,13 +714,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5">
-        <f>_xll.qlRateHelperPillarDate(E11)</f>
-        <v>42649</v>
-      </c>
-      <c r="G5" t="str">
-        <f>_xll.qlFraRateHelper(,1,"3d",J3,"maturitydate")</f>
-        <v>obj_000a7#0000</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlRateHelperPillarDate(E11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e">
+        <f ca="1">_xll.qlFraRateHelper(,1,"3d",J3,"maturitydate")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -686,9 +728,9 @@
       <c r="I5" s="4">
         <v>25571</v>
       </c>
-      <c r="J5" t="str">
-        <f>_xll.qlOvernightIndex(,"euribor",2,"eur","target","actual/360",K3)</f>
-        <v>obj_0009a#0000</v>
+      <c r="J5" t="e">
+        <f ca="1">_xll.qlOvernightIndex(,"euribor",2,"eur","target","actual/360",K3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -703,9 +745,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E6" s="4">
-        <f>_xll.qlRateHelperMaturityDate(E11)</f>
-        <v>42649</v>
+      <c r="E6" s="4" t="e">
+        <f ca="1">_xll.qlRateHelperMaturityDate(E11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -716,9 +758,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E7" t="str">
-        <f>_xll.qlRateHelperQuoteName(E11)</f>
-        <v/>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlRateHelperQuoteName(E11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -732,9 +774,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E8">
-        <f>_xll.qlRateHelperQuoteIsValid(E11)</f>
-        <v>1</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlRateHelperQuoteIsValid(E11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -750,8 +792,8 @@
         <v>ERROR</v>
       </c>
       <c r="E9" s="4" t="e">
-        <f>_xll.qlRateHelperImpliedQuote(E11)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlRateHelperImpliedQuote(E11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -766,8 +808,8 @@
         <v>ERROR</v>
       </c>
       <c r="E10" t="e">
-        <f>_xll.qlRateHelperQuoteError(E11)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlRateHelperQuoteError(E11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -781,9 +823,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E11" t="str">
-        <f>_xll.qlDepositRateHelper("rh01",0,J3)</f>
-        <v>rh01#0000</v>
+      <c r="E11" t="e">
+        <f ca="1">_xll.qlDepositRateHelper("rh01",0,J3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -797,9 +839,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E12" t="str">
-        <f>_xll.qlDepositRateHelper2("rh02",0,"3M",2,"target","modified following",TRUE,"actual/360")</f>
-        <v>rh02#0000</v>
+      <c r="E12" t="e">
+        <f ca="1">_xll.qlDepositRateHelper2("rh02",0,"3M",2,"target","modified following",TRUE,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -813,9 +855,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E13" t="str">
-        <f>_xll.qlSwapRateHelper("rh03",0,J4,0,"1y",K3,"maturitydate")</f>
-        <v>rh03#0000</v>
+      <c r="E13" t="e">
+        <f ca="1">_xll.qlSwapRateHelper("rh03",0,J4,0,"1y",K3,"maturitydate")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -829,9 +871,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E14" t="str">
-        <f>_xll.qlSwapRateHelper2("rh04",0,2,"1y","target","annual","unadjusted","actual/360",J3,0,"1y",K3,"maturitydate")</f>
-        <v>rh04#0000</v>
+      <c r="E14" t="e">
+        <f ca="1">_xll.qlSwapRateHelper2("rh04",0,2,"1y","target","annual","unadjusted","actual/360",J3,0,"1y",K3,"maturitydate")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -845,9 +887,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E15">
-        <f>_xll.qlSwapRateHelperSpread(E13)</f>
-        <v>0</v>
+      <c r="E15" t="e">
+        <f ca="1">_xll.qlSwapRateHelperSpread(E13)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -861,9 +903,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E16" t="str">
-        <f>_xll.qlOISRateHelper("rh05",2,"1y",123,J5,K3)</f>
-        <v>rh05#0000</v>
+      <c r="E16" t="e">
+        <f ca="1">_xll.qlOISRateHelper("rh05",2,"1y",123,J5,K3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -877,9 +919,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E17" t="str">
-        <f>_xll.qlDatedOISRateHelper("rh06",I3,I5,1,J5,K3)</f>
-        <v>rh06#0000</v>
+      <c r="E17" t="e">
+        <f ca="1">_xll.qlDatedOISRateHelper("rh06",I3,I5,1,J5,K3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -893,9 +935,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E18" t="str">
-        <f>_xll.qlFraRateHelper("rh07",1,"1d",J3,"maturitydate")</f>
-        <v>rh07#0000</v>
+      <c r="E18" t="e">
+        <f ca="1">_xll.qlFraRateHelper("rh07",1,"1d",J3,"maturitydate")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -909,9 +951,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E19" t="str">
-        <f>_xll.qlFraRateHelper2("rh08",1,"1m",1,2,"target","modified following",TRUE,"actual/360","maturitydate")</f>
-        <v>rh08#0000</v>
+      <c r="E19" t="e">
+        <f ca="1">_xll.qlFraRateHelper2("rh08",1,"1m",1,2,"target","modified following",TRUE,"actual/360","maturitydate")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -925,17 +967,17 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E20" t="str">
-        <f>_xll.qlBondHelper("rh09",1,G20,TRUE)</f>
-        <v>rh09#0000</v>
-      </c>
-      <c r="G20" t="str">
-        <f>_xll.qlBond(,,"eur",2,"target",100,,,H20)</f>
-        <v>obj_00098#0000</v>
-      </c>
-      <c r="H20" t="str">
-        <f>_xll.qlLeg(,H3:H5,I3:I5)</f>
-        <v>obj_00095#0000</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlBondHelper("rh09",1,G20,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" t="e">
+        <f ca="1">_xll.qlBond(,,"eur",2,"target",100,,,H20)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" t="e">
+        <f ca="1">_xll.qlLeg(,H3:H5,I3:I5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -949,13 +991,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E21" t="str">
-        <f>_xll.qlFixedRateBondHelper("rh10",1,2,100,G21,H3:H5,"actual/360","following",100,,"target","1d","target","modified following",TRUE,TRUE)</f>
-        <v>rh10#0000</v>
-      </c>
-      <c r="G21" t="str">
-        <f>_xll.qlSchedule(,I3,I5,"1d","target","mf","mf","backward",TRUE)</f>
-        <v>obj_00094#0000</v>
+      <c r="E21" t="e">
+        <f ca="1">_xll.qlFixedRateBondHelper("rh10",1,2,100,G21,H3:H5,"actual/360","following",100,,"target","1d","target","modified following",TRUE,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" t="e">
+        <f ca="1">_xll.qlSchedule(,I3,I5,"1d","target","mf","mf","backward",TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -969,9 +1011,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E22">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment(E23)</f>
-        <v>1</v>
+      <c r="E22" t="e">
+        <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment(E23)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -985,9 +1027,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E23" t="str">
-        <f>_xll.qlFuturesRateHelper("rh11",1,"imm",I23,J3,1)</f>
-        <v>rh11#0000</v>
+      <c r="E23" t="e">
+        <f ca="1">_xll.qlFuturesRateHelper("rh11",1,"imm",I23,J3,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I23" s="4">
         <v>42725</v>
@@ -1004,9 +1046,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E24" t="str">
-        <f>_xll.qlFuturesRateHelper2("rh12",1,"imm",I23,1,"target","modified following",TRUE,"actual/360",1)</f>
-        <v>rh12#0000</v>
+      <c r="E24" t="e">
+        <f ca="1">_xll.qlFuturesRateHelper2("rh12",1,"imm",I23,1,"target","modified following",TRUE,"actual/360",1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1020,9 +1062,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E25" t="str">
-        <f>_xll.qlFuturesRateHelper3("rh13",1,"imm",I23,,"actual/360",1)</f>
-        <v>rh13#0000</v>
+      <c r="E25" t="e">
+        <f ca="1">_xll.qlFuturesRateHelper3("rh13",1,"imm",I23,,"actual/360",1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1036,9 +1078,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E26" t="str">
-        <f>_xll.qlFxSwapRateHelper("rh14",1,1,"1m",2,"target","modified following",TRUE,TRUE,+K3)</f>
-        <v>rh14#0000</v>
+      <c r="E26" t="e">
+        <f ca="1">_xll.qlFxSwapRateHelper("rh14",1,1,"1m",2,"target","modified following",TRUE,TRUE,+K3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1052,9 +1094,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E27">
-        <f>_xll.qlFxSwapRateHelperSpotValue(E26)</f>
-        <v>1</v>
+      <c r="E27" t="e">
+        <f ca="1">_xll.qlFxSwapRateHelperSpotValue(E26)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1068,9 +1110,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E28" t="str">
-        <f>_xll.qlFxSwapRateHelperTenor(E26)</f>
-        <v>1M</v>
+      <c r="E28" t="e">
+        <f ca="1">_xll.qlFxSwapRateHelperTenor(E26)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1084,9 +1126,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E29">
-        <f>_xll.qlFxSwapRateHelperFixingDays(E26)</f>
-        <v>2</v>
+      <c r="E29" t="e">
+        <f ca="1">_xll.qlFxSwapRateHelperFixingDays(E26)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1100,9 +1142,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E30" t="str">
-        <f>_xll.qlFxSwapRateHelperCalendar(E26)</f>
-        <v>TARGET</v>
+      <c r="E30" t="e">
+        <f ca="1">_xll.qlFxSwapRateHelperCalendar(E26)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1116,9 +1158,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E31" t="str">
-        <f>_xll.qlFxSwapRateHelperBDC(E26)</f>
-        <v>Modified Following</v>
+      <c r="E31" t="e">
+        <f ca="1">_xll.qlFxSwapRateHelperBDC(E26)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1132,9 +1174,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E32" t="b">
-        <f>_xll.qlFxSwapRateHelperEOM(E26)</f>
-        <v>1</v>
+      <c r="E32" t="e">
+        <f ca="1">_xll.qlFxSwapRateHelperEOM(E26)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1148,9 +1190,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E33" t="b">
-        <f>_xll.qlFxSwapRateHelperIsBaseCurrencyCollateralCurrency(E26)</f>
-        <v>1</v>
+      <c r="E33" t="e">
+        <f ca="1">_xll.qlFxSwapRateHelperIsBaseCurrencyCollateralCurrency(E26)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1164,13 +1206,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E34" t="str">
-        <f>_xll.qlRateHelperSelection(H34:H36,I34:I36,1,1,1,"alldepos",1)</f>
-        <v>obj_000a0</v>
-      </c>
-      <c r="H34" t="str">
-        <f>_xll.qlDepositRateHelper(,0,J3)</f>
-        <v>obj_000a8#0000</v>
+      <c r="E34" t="e">
+        <f ca="1">_xll.qlRateHelperSelection(H34:H36,I34:I36,1,1,1,"alldepos",1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H34" t="e">
+        <f ca="1">_xll.qlDepositRateHelper(,0,J3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1187,22 +1229,22 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E35">
-        <f>_xll.qlRateHelperRate(E26)</f>
-        <v>1</v>
-      </c>
-      <c r="H35" t="str">
-        <f>_xll.qlDepositRateHelper(,0,J3)</f>
-        <v>obj_000aa#0000</v>
+      <c r="E35" t="e">
+        <f ca="1">_xll.qlRateHelperRate(E26)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H35" t="e">
+        <f ca="1">_xll.qlDepositRateHelper(,0,J3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H36" t="str">
-        <f>_xll.qlDepositRateHelper(,0,J3)</f>
-        <v>obj_000a0#0000</v>
+      <c r="H36" t="e">
+        <f ca="1">_xll.qlDepositRateHelper(,0,J3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1215,26 +1257,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
